--- a/Data/cas.xlsx
+++ b/Data/cas.xlsx
@@ -3,11 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="APP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dgj" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sxzs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dzg" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dgj" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -57,6 +59,13 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FF008B00"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <color rgb="FF008B00"/>
     </font>
     <font>
@@ -88,7 +97,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -98,14 +107,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,17 +494,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col width="14.83203125" customWidth="1" style="4" min="3" max="3"/>
-    <col width="12.6640625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="10.75" customWidth="1" style="4" min="6" max="6"/>
+    <col width="14.83203125" customWidth="1" style="3" min="3" max="3"/>
+    <col width="12.6640625" customWidth="1" style="3" min="5" max="5"/>
+    <col width="10.75" customWidth="1" style="3" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -550,12 +560,62 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>2020-08-31 16:08:15</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
+          <t>2020-09-01 10:32:39</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="inlineStr">
         <is>
           <t>faild</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>店掌柜</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>dzg</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>刷新支付助手</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>sxzs</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01 10:32:39</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -571,23 +631,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
-    <col width="11.4140625" customWidth="1" style="4" min="4" max="4"/>
-    <col width="55.4140625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="16.33203125" customWidth="1" style="4" min="6" max="6"/>
-    <col width="21.9140625" customWidth="1" style="4" min="7" max="7"/>
-    <col width="10.75" customWidth="1" style="4" min="8" max="8"/>
-    <col width="13.58203125" customWidth="1" style="4" min="9" max="9"/>
-    <col width="20.58203125" customWidth="1" style="4" min="10" max="10"/>
-    <col width="12.33203125" customWidth="1" style="4" min="11" max="13"/>
-    <col width="12.08203125" customWidth="1" style="4" min="14" max="14"/>
+    <col width="52.75" customWidth="1" style="3" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -668,7 +720,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>我的直属商户列表</t>
+          <t>综合查询_机构奖励明细查询日</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -676,9 +728,9 @@
           <t>y</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>http://192.168.31.232/dgjs-api/merc/findShopClassificationInfo</t>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>http://192.168.31.232/sxzs-api/agentDeal/queryAgentRewardInfo</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -688,7 +740,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>findShopClassificationInfo</t>
+          <t>queryAgentRewardInfo</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -703,87 +755,369 @@
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>{'meta': {'clientType': '1', 'statusCode': 200, 'appKey': 'TxB4du9X', 'accessToken': 'lTCUeUfnSN6BZhWYYetPHA', 'clientName': 'Android_MHA-AL00_9_dgj', 'clientVersion': '1.2.9', 'transCode': '', 'transDate': '20200831104130', 'transNonce': '79802d36-eb33-11ea-9692-50eb716c4368', 'username': '18616726549'}, 'result': {'orgId': 9761, 'bestShopDay': 30, 'bestShopAmount': 30000, 'activeShopDay': 30, 'activeShopAmount': 1000, 'silentShopDay': 30, 'newShopDay': 30, 'activeShopNum': 3, 'silentShopNotradeDay': 30, 'updateCount': 1}}</t>
+          <t>{"meta":{"clientType":"1","statusCode":200,"appKey":"wBpz4GQs","accessToken":"X-PBGuFlSxuIl7kBcGELLw","clientName":"Android_OPPO R17 Pro_7.1.2_sxzs","clientVersion":"1.0.6","transCode":"","transDate":"20200901094637","transNonce":"b4314be4-4182-4b5b-a240-dd650da1b0bb","username":"18616726548"},"page":{"page":0,"size":25,"totalPages":5,"totalElements":123,"pageSize":25,"pageNumber":0},"result":[{"createTime":"2020-09-01","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-31","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-30","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-29","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-28","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-27","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-26","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-25","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-24","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-23","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-22","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-21","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-20","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-19","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-18","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-17","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-16","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-15","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-14","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-13","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-12","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-11","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-10","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-09","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1},{"createTime":"2020-08-08","totalCashbackAmount":0,"yxfAmount":0,"t0Amount":-1,"t1Amount":-1,"ysfAmount":0,"wxAmount":-1,"zfbAmount":-1}]}</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>2020-08-31 16:08:13</t>
-        </is>
-      </c>
-      <c r="L2" s="7" t="inlineStr">
+          <t>2020-09-01 10:32:39</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
         <is>
           <t>pass</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="17.5" customHeight="1" s="4">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>全部商户信息</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>http://192.168.31.232/dgjs-api/merchant/getMerchantInfo</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>getMerchantInfo</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>2020-08-31 16:08:15</t>
-        </is>
-      </c>
-      <c r="L3" s="8" t="inlineStr">
-        <is>
-          <t>faild</t>
         </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <cols>
+    <col width="12.9140625" customWidth="1" style="3" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>作用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Token操作</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果方式</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>执行时间</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>执行结果</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
+  <cols>
+    <col width="11.4140625" customWidth="1" style="3" min="4" max="4"/>
+    <col width="55.4140625" customWidth="1" style="3" min="5" max="5"/>
+    <col width="16.33203125" customWidth="1" style="3" min="6" max="6"/>
+    <col width="21.9140625" customWidth="1" style="3" min="7" max="7"/>
+    <col width="10.75" customWidth="1" style="3" min="8" max="8"/>
+    <col width="13.58203125" customWidth="1" style="3" min="9" max="9"/>
+    <col width="20.58203125" customWidth="1" style="3" min="10" max="10"/>
+    <col width="12.33203125" customWidth="1" style="3" min="11" max="13"/>
+    <col width="12.08203125" customWidth="1" style="3" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case编号</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>作用</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>是否执行</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>前置条件</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Token操作</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>预期结果方式</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>预期结果</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>执行时间</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>执行结果</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>错误信息</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>我的直属商户列表</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>http://192.168.31.232/dgjs-api/merc/findShopClassificationInfo</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>findShopClassificationInfo</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>{'meta': {'clientType': '1', 'statusCode': 200, 'appKey': 'TxB4du9X', 'accessToken': 'lTCUeUfnSN6BZhWYYetPHA', 'clientName': 'Android_MHA-AL00_9_dgj', 'clientVersion': '1.2.9', 'transCode': '', 'transDate': '20200831104130', 'transNonce': '79802d36-eb33-11ea-9692-50eb716c4368', 'username': '18616726549'}, 'result': {'orgId': 9761, 'bestShopDay': 30, 'bestShopAmount': 30000, 'activeShopDay': 30, 'activeShopAmount': 1000, 'silentShopDay': 30, 'newShopDay': 30, 'activeShopNum': 3, 'silentShopNotradeDay': 30, 'updateCount': 1}}</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01 10:32:38</t>
+        </is>
+      </c>
+      <c r="L2" s="8" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="17.5" customHeight="1" s="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>全部商户信息</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>http://192.168.31.232/dgjs-api/merchant/getMerchantInfo</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>getMerchantInfo</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>2020-09-01 10:32:38</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>

--- a/Data/cas.xlsx
+++ b/Data/cas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="APP" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -59,17 +59,7 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <family val="3"/>
       <color rgb="FF008B00"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <color rgb="FF008B00"/>
-    </font>
-    <font>
-      <color rgb="FFFF3030"/>
     </font>
   </fonts>
   <fills count="2">
@@ -97,7 +87,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -108,14 +98,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -496,8 +484,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
@@ -555,19 +543,11 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>2020-09-01 10:32:39</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="inlineStr">
-        <is>
-          <t>faild</t>
-        </is>
-      </c>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr"/>
+      <c r="F2" s="6" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -588,6 +568,8 @@
           <t>n</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -610,10 +592,10 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>2020-09-01 10:32:39</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
+          <t>2020-09-10 13:49:02</t>
+        </is>
+      </c>
+      <c r="F4" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -633,13 +615,14 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14" outlineLevelCol="0"/>
   <cols>
     <col width="52.75" customWidth="1" style="3" min="5" max="5"/>
+    <col width="20.9140625" customWidth="1" style="3" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -728,7 +711,7 @@
           <t>y</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>http://192.168.31.232/sxzs-api/agentDeal/queryAgentRewardInfo</t>
         </is>
@@ -740,7 +723,8 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>queryAgentRewardInfo</t>
+          <t>{"data":{"dateType":"0","orgId":"31642"},"meta":{"accessToken":"X-PBGuFlSxuIl7kBcGELLw","appKey":"wBpz4GQs","clientName":"Android_OPPO R17 Pro_7.1.2_sxzs","clientVersion":"1.0.6","transCode":"","transDate":"20200901094637","transNonce":"b4314be4-4182-4b5b-a240-dd650da1b0bb","username":"18616726548"},"page":{"pageNumber":0,"pageSize":25}
+  }</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -760,10 +744,10 @@
       </c>
       <c r="K2" s="1" t="inlineStr">
         <is>
-          <t>2020-09-01 10:32:39</t>
-        </is>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
+          <t>2020-09-10 13:49:02</t>
+        </is>
+      </c>
+      <c r="L2" s="7" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -771,16 +755,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
@@ -1002,7 +980,7 @@
           <t>y</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="4" t="inlineStr">
         <is>
           <t>http://192.168.31.232/dgjs-api/merc/findShopClassificationInfo</t>
         </is>
@@ -1037,7 +1015,7 @@
           <t>2020-09-01 10:32:38</t>
         </is>
       </c>
-      <c r="L2" s="8" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1057,7 +1035,7 @@
           <t>y</t>
         </is>
       </c>
-      <c r="E3" s="6" t="inlineStr">
+      <c r="E3" s="4" t="inlineStr">
         <is>
           <t>http://192.168.31.232/dgjs-api/merchant/getMerchantInfo</t>
         </is>
@@ -1090,7 +1068,7 @@
           <t>2020-09-01 10:32:38</t>
         </is>
       </c>
-      <c r="L3" s="9" t="inlineStr">
+      <c r="L3" s="6" t="inlineStr">
         <is>
           <t>faild</t>
         </is>
@@ -1098,26 +1076,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
